--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_5.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_5.xlsx
@@ -483,158 +483,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2932330827067669</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[(28.921995, 33.101587)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443)]</t>
+          <t>[(105.0, 108.24)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>isophonics_171</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_150</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06596426935409987</v>
+        <v>0.1471291866028708</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>[['E', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A']]</t>
+          <t>[['G', 'G', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018)]</t>
+          <t>[(24.616991, 31.687468)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(59.20524, 66.101566)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[(47.639639, 53.885807)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2687747035573123</v>
+        <v>0.07984496124031007</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[(78.74, 89.26), (26.48, 34.32), (0.24, 9.6)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[(20.38, 24.76), (14.2, 20.38), (21.9, 26.28)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.2259615384615385</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.18, 21.14)]</t>
+          <t>[(10.619, 16.742)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(42.52, 50.16)]</t>
+          <t>[(57.48, 64.58)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -643,35 +639,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1507352941176471</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B:7', 'E', 'A']]</t>
+          <t>[['G#:7', 'C#:maj', 'G#:7']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['D:7', 'G:maj', 'C:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(91.834264, 98.974002), (32.36796, 41.621112)]</t>
+          <t>[(7.34, 9.06)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.72, 10.48), (54.74, 64.2)]</t>
+          <t>[(44.07, 46.31)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -680,113 +676,117 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0529616724738676</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'G:7', 'G:min7', 'C:7']]</t>
+          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:7', 'A:min7', 'D:7']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.71, 11.85)]</t>
+          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(30.78, 35.42)]</t>
+          <t>[(114.3, 123.14), (19.82, 29.1)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1142241379310345</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(30.494172, 33.431496)]</t>
+          <t>[(187.92, 190.22), (23.18, 30.14)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(62.94, 73.0)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[(42.58, 45.2), (100.38, 113.76)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.1785714285714285</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(242.06, 254.26)]</t>
+          <t>[(73.74, 83.38)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(253.0, 257.98)]</t>
+          <t>[(51.69, 55.72)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -795,158 +795,158 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'Eb:7']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['G:maj', 'C:maj', 'F:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(26.041712, 37.10602), (27.910918, 40.797993)]</t>
+          <t>[(72.52, 90.98)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.72, 10.48), (12.88, 16.38)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[(23.26, 29.8)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[(23.74, 51.72)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(130.84, 135.98), (2.64, 7.3)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>[(10.58, 17.96)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E', 'E:7/3', 'A'], ['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[(17.98, 26.32), (2.56, 21.44)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[(20.410362, 24.856984), (12.921927, 21.908049)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.233974358974359</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(38.2, 42.24)]</t>
+          <t>[(7.56, 16.36)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(37.94, 45.58)]</t>
+          <t>[(253.84, 257.6)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -955,80 +955,76 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2</v>
+        <v>0.3314393939393939</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[(16.04, 21.0)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[(0.58, 10.18)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.08977272727272727</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['Db', 'Gb', 'Ab'], ['Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>[['C', 'F', 'G'], ['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[(0.344657, 5.571955), (62.09653, 72.37136)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[(25.807392, 30.753242), (8.482392, 11.666439)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1042,67 +1038,71 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06785714285714287</v>
+        <v>0.1340659340659341</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>[['A:7', 'D', 'D:min', 'A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[(3.3, 5.85)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[(12.823786, 18.895804)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_271</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3240740740740741</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['E', 'E/5', 'E']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A'], ['A:7', 'D', 'G', 'D']]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(55.68, 66.1), (54.62, 62.28)]</t>
+          <t>[(61.881201, 65.886643)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(4.063, 8.399), (28.197, 34.358)]</t>
+          <t>[(16.13, 24.98)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_5.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(105.0, 108.24)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1471291866028708</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'C#:min']]</t>
-        </is>
+          <t>isophonics_76</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_292</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1004464285714286</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'E:min']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.616991, 31.687468)]</t>
+          <t>[['D/2', 'A/5', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(47.639639, 53.885807)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:08.605000', '0:00:11.726000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00', '0:00:03.326825')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4578947368421052</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G'], ['G', 'C', 'G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(78.74, 89.26), (26.48, 34.32), (0.24, 9.6)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E', 'A', 'E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.38, 24.76), (14.2, 20.38), (21.9, 26.28)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:27.686530', '0:01:42.489251'), ('0:00:44.300045', '0:00:57.976598')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:35.197913', '0:00:52.299410'), ('0:00:37.995918', '0:01:09.517005')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2039473684210526</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['C', 'F', 'C'], ['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['B', 'E/5', 'B'], ['E', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:10.634761', '0:00:15.986961'), ('0:00:00.414179', '0:00:08.780606')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:58.625147', '0:01:04.604285'), ('0:00:26.488730', '0:00:32.328548')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G#:7', 'C#:maj', 'G#:7']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1322674418604651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
+          <t>[['D', 'A', 'E', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.34, 9.06)]</t>
+          <t>[['C/5', 'G', 'D', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(44.07, 46.31)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:08.667414', '0:00:22.402018')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:37.239569', '0:00:44.159115')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(114.3, 123.14), (19.82, 29.1)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:02.580000', '0:00:05.020000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5405405405405406</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(187.92, 190.22), (23.18, 30.14)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.58, 45.2), (100.38, 113.76)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(73.74, 83.38)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.74, 51.72)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.58, 17.96)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'B', 'E']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32), (2.56, 21.44)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.410362, 24.856984), (12.921927, 21.908049)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.56, 16.36)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(253.84, 257.6)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3314393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.58, 10.18)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08977272727272727</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Db', 'Gb', 'Ab'], ['Db', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G'], ['C', 'G', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.344657, 5.571955), (62.09653, 72.37136)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.807392, 30.753242), (8.482392, 11.666439)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1340659340659341</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.3, 5.85)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'E/5', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(61.881201, 65.886643)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.13, 24.98)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
